--- a/distancias_comunas_bodegas.xlsx
+++ b/distancias_comunas_bodegas.xlsx
@@ -2402,28 +2402,28 @@
         <v>74.83282799999999</v>
       </c>
       <c r="D54" t="n">
-        <v>164.079969</v>
+        <v>164.08025</v>
       </c>
       <c r="E54" t="n">
-        <v>219.650391</v>
+        <v>219.650656</v>
       </c>
       <c r="F54" t="n">
-        <v>266.717281</v>
+        <v>266.717562</v>
       </c>
       <c r="G54" t="n">
-        <v>386.621188</v>
+        <v>386.621469</v>
       </c>
       <c r="H54" t="n">
-        <v>481.960188</v>
+        <v>481.960406</v>
       </c>
       <c r="I54" t="n">
-        <v>531.480625</v>
+        <v>531.4809379999999</v>
       </c>
       <c r="J54" t="n">
-        <v>727.5593120000001</v>
+        <v>727.559625</v>
       </c>
       <c r="K54" t="n">
-        <v>1005.70575</v>
+        <v>1005.706</v>
       </c>
     </row>
     <row r="55">
@@ -3068,28 +3068,28 @@
         <v>72.636844</v>
       </c>
       <c r="D72" t="n">
-        <v>171.283125</v>
+        <v>171.283391</v>
       </c>
       <c r="E72" t="n">
-        <v>226.853531</v>
+        <v>226.853812</v>
       </c>
       <c r="F72" t="n">
-        <v>273.920406</v>
+        <v>273.920719</v>
       </c>
       <c r="G72" t="n">
-        <v>393.824344</v>
+        <v>393.824594</v>
       </c>
       <c r="H72" t="n">
-        <v>489.163344</v>
+        <v>489.163562</v>
       </c>
       <c r="I72" t="n">
-        <v>538.68375</v>
+        <v>538.684062</v>
       </c>
       <c r="J72" t="n">
-        <v>734.7625</v>
+        <v>734.76275</v>
       </c>
       <c r="K72" t="n">
-        <v>1012.908875</v>
+        <v>1012.909188</v>
       </c>
     </row>
     <row r="73">
@@ -3216,28 +3216,28 @@
         <v>91.85584399999999</v>
       </c>
       <c r="D76" t="n">
-        <v>189.147781</v>
+        <v>189.148078</v>
       </c>
       <c r="E76" t="n">
-        <v>244.718203</v>
+        <v>244.718453</v>
       </c>
       <c r="F76" t="n">
-        <v>291.785094</v>
+        <v>291.785375</v>
       </c>
       <c r="G76" t="n">
-        <v>411.689</v>
+        <v>411.689281</v>
       </c>
       <c r="H76" t="n">
-        <v>507.028</v>
+        <v>507.028219</v>
       </c>
       <c r="I76" t="n">
-        <v>556.5484379999999</v>
+        <v>556.54875</v>
       </c>
       <c r="J76" t="n">
-        <v>752.627125</v>
+        <v>752.627438</v>
       </c>
       <c r="K76" t="n">
-        <v>1030.773562</v>
+        <v>1030.773812</v>
       </c>
     </row>
     <row r="77">
@@ -3253,28 +3253,28 @@
         <v>76.03971899999999</v>
       </c>
       <c r="D77" t="n">
-        <v>174.685984</v>
+        <v>174.686281</v>
       </c>
       <c r="E77" t="n">
-        <v>230.256391</v>
+        <v>230.256703</v>
       </c>
       <c r="F77" t="n">
-        <v>277.323312</v>
+        <v>277.323562</v>
       </c>
       <c r="G77" t="n">
-        <v>397.227219</v>
+        <v>397.227438</v>
       </c>
       <c r="H77" t="n">
-        <v>492.566188</v>
+        <v>492.566469</v>
       </c>
       <c r="I77" t="n">
-        <v>542.0867500000001</v>
+        <v>542.087</v>
       </c>
       <c r="J77" t="n">
-        <v>738.165375</v>
+        <v>738.165625</v>
       </c>
       <c r="K77" t="n">
-        <v>1016.311812</v>
+        <v>1016.312</v>
       </c>
     </row>
     <row r="78">
@@ -4215,7 +4215,7 @@
         <v>172.961188</v>
       </c>
       <c r="D103" t="n">
-        <v>177.605672</v>
+        <v>177.605531</v>
       </c>
       <c r="E103" t="n">
         <v>151.002734</v>
@@ -5038,19 +5038,19 @@
         <v>172.195125</v>
       </c>
       <c r="G125" t="n">
-        <v>98.85427300000001</v>
+        <v>98.85417200000001</v>
       </c>
       <c r="H125" t="n">
-        <v>116.625648</v>
+        <v>116.625547</v>
       </c>
       <c r="I125" t="n">
-        <v>166.146156</v>
+        <v>166.146062</v>
       </c>
       <c r="J125" t="n">
-        <v>362.224812</v>
+        <v>362.224719</v>
       </c>
       <c r="K125" t="n">
-        <v>640.371188</v>
+        <v>640.371125</v>
       </c>
     </row>
     <row r="126">
@@ -5075,19 +5075,19 @@
         <v>220.053875</v>
       </c>
       <c r="G126" t="n">
-        <v>146.713</v>
+        <v>146.712906</v>
       </c>
       <c r="H126" t="n">
-        <v>164.484375</v>
+        <v>164.484281</v>
       </c>
       <c r="I126" t="n">
-        <v>214.004875</v>
+        <v>214.004797</v>
       </c>
       <c r="J126" t="n">
-        <v>410.083562</v>
+        <v>410.083438</v>
       </c>
       <c r="K126" t="n">
-        <v>688.23</v>
+        <v>688.229875</v>
       </c>
     </row>
     <row r="127">
@@ -5112,19 +5112,19 @@
         <v>209.458625</v>
       </c>
       <c r="G127" t="n">
-        <v>136.11775</v>
+        <v>136.117656</v>
       </c>
       <c r="H127" t="n">
-        <v>153.889125</v>
+        <v>153.889031</v>
       </c>
       <c r="I127" t="n">
-        <v>203.409641</v>
+        <v>203.409547</v>
       </c>
       <c r="J127" t="n">
-        <v>399.488281</v>
+        <v>399.488188</v>
       </c>
       <c r="K127" t="n">
-        <v>677.6347500000001</v>
+        <v>677.634625</v>
       </c>
     </row>
     <row r="128">
@@ -6407,19 +6407,19 @@
         <v>201.834859</v>
       </c>
       <c r="G162" t="n">
-        <v>128.494</v>
+        <v>128.493914</v>
       </c>
       <c r="H162" t="n">
-        <v>146.265375</v>
+        <v>146.265297</v>
       </c>
       <c r="I162" t="n">
-        <v>195.785891</v>
+        <v>195.785781</v>
       </c>
       <c r="J162" t="n">
-        <v>391.864531</v>
+        <v>391.864469</v>
       </c>
       <c r="K162" t="n">
-        <v>670.011</v>
+        <v>670.010938</v>
       </c>
     </row>
     <row r="163">
@@ -7033,7 +7033,7 @@
         <v>430.877656</v>
       </c>
       <c r="F179" t="n">
-        <v>383.258031</v>
+        <v>383.258062</v>
       </c>
       <c r="G179" t="n">
         <v>268.704938</v>
@@ -9157,7 +9157,7 @@
         <v>181.177969</v>
       </c>
       <c r="K236" t="n">
-        <v>148.349938</v>
+        <v>148.350016</v>
       </c>
     </row>
     <row r="237">
@@ -11319,28 +11319,28 @@
         <v>141.153531</v>
       </c>
       <c r="D295" t="n">
-        <v>81.000516</v>
+        <v>77.00264800000001</v>
       </c>
       <c r="E295" t="n">
-        <v>136.570922</v>
+        <v>132.573062</v>
       </c>
       <c r="F295" t="n">
-        <v>183.637828</v>
+        <v>179.639938</v>
       </c>
       <c r="G295" t="n">
-        <v>303.541719</v>
+        <v>299.543844</v>
       </c>
       <c r="H295" t="n">
-        <v>398.880719</v>
+        <v>394.882844</v>
       </c>
       <c r="I295" t="n">
-        <v>448.401219</v>
+        <v>444.403344</v>
       </c>
       <c r="J295" t="n">
-        <v>644.4799379999999</v>
+        <v>640.482062</v>
       </c>
       <c r="K295" t="n">
-        <v>922.626312</v>
+        <v>918.6285</v>
       </c>
     </row>
     <row r="296">
